--- a/input_data/8001/cli.post_by_file/pbf_opus.original.OPUS_big-rocks.journeys.a6i.xlsx
+++ b/input_data/8001/cli.post_by_file/pbf_opus.original.OPUS_big-rocks.journeys.a6i.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\input_data\8001\cli.post-by-file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\input_data\8001\cli.post_by_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264469F3-0F9B-429C-9B68-E1BF8666E223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D179ED6-761B-42F7-B825-42F69BB7B2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{E0F713A6-EC14-46B4-BF9F-A256ED646BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Posting Label" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Big Rock</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Investment</t>
   </si>
   <si>
-    <t>H2:I10</t>
-  </si>
-  <si>
     <t>My Corp</t>
   </si>
   <si>
@@ -177,15 +174,9 @@
     <t>data.range.3</t>
   </si>
   <si>
-    <t>F2:F9</t>
-  </si>
-  <si>
     <t>Big Rock Estimate</t>
   </si>
   <si>
-    <t>E2:E9</t>
-  </si>
-  <si>
     <t>manifestAPI</t>
   </si>
   <si>
@@ -196,6 +187,27 @@
   </si>
   <si>
     <t>knowledgeBase</t>
+  </si>
+  <si>
+    <t>B2:B9</t>
+  </si>
+  <si>
+    <t>C2:C9</t>
+  </si>
+  <si>
+    <t>E2:F10</t>
+  </si>
+  <si>
+    <t>data.sheet.1</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>data.sheet.2</t>
+  </si>
+  <si>
+    <t>data.sheet.3</t>
   </si>
 </sst>
 </file>
@@ -667,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B42D86A-1A77-46AE-A6E3-552A4E773816}">
-  <dimension ref="B1:C20"/>
+  <dimension ref="B1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -689,10 +701,10 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
@@ -724,7 +736,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
@@ -748,94 +760,118 @@
         <v>39</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="18" t="s">
         <v>44</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>19</v>
+        <v>57</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="17">
-        <v>44315</v>
+        <v>11</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="17">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -848,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17CFAF0-8985-4185-B587-8E577E4607A0}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1087,6 +1123,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F6243DC9F1A5042A9E247A4534B7346" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d7c915ce63f17b192f15f9b5c7111dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="16245bed-a411-4918-92cd-ff4510683069" xmlns:ns3="ddeece39-a33c-49ad-a8fd-0ae9fa2c3195" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06dc0855dc4fc49148f60a39d2bf92c3" ns2:_="" ns3:_="">
     <xsd:import namespace="16245bed-a411-4918-92cd-ff4510683069"/>
@@ -1303,12 +1345,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CA40E-146C-4986-9E85-E9ED557F93C5}">
   <ds:schemaRefs>
@@ -1318,6 +1354,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B96BA-B59D-47A4-B5CD-02C507056BD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22B48C8D-ED50-492C-9680-7011CC9B9CB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1334,13 +1379,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8B96BA-B59D-47A4-B5CD-02C507056BD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>